--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -935,12 +935,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1973,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2775,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5275,12 +5275,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5465,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6579,12 +6579,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7765,12 +7765,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8335,12 +8335,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8677,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9327,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9555,12 +9555,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9825,12 +9825,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10289,12 +10289,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10821,12 +10821,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10897,12 +10897,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11091,12 +11091,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11129,12 +11129,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11703,12 +11703,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11893,12 +11893,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12475,12 +12475,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12669,12 +12669,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13201,12 +13201,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13277,12 +13277,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13433,12 +13433,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13703,12 +13703,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13935,12 +13935,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13973,12 +13973,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14703,12 +14703,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
